--- a/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC18-Workbook.xlsx
+++ b/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC18-Workbook.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\Teaching\Monmouth College\[BUSI201] Business Data Analysis\BUSI201-F2023\BUSI201-F2023-Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\Teaching\Monmouth College\[BUSI201] Business Data Analysis\BUSI201-S2024\BUSI201-S2024-Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FCD057-10EA-44E7-91E0-F40AE918DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B89E63-C330-47B6-94D7-75A8178767A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E0370A53-E83C-44B1-80DC-D3572B94AFF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E0370A53-E83C-44B1-80DC-D3572B94AFF1}"/>
   </bookViews>
   <sheets>
     <sheet name="WHAT-IF" sheetId="51" r:id="rId1"/>
     <sheet name="LOAN" sheetId="53" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="Cost">'WHAT-IF'!$C$9</definedName>
-    <definedName name="Price">'WHAT-IF'!$C$3</definedName>
-    <definedName name="Profit">'WHAT-IF'!$C$10</definedName>
-    <definedName name="Quantity">'WHAT-IF'!$C$5</definedName>
-    <definedName name="Revenue">'WHAT-IF'!$C$6</definedName>
-    <definedName name="VAT">'WHAT-IF'!$C$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -247,9 +239,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,6 +261,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -297,9 +289,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -337,7 +329,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -443,7 +435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -585,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0DC795-C1CF-4381-B7B9-113F14F3FBAA}">
   <dimension ref="B1:J1001"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
@@ -609,21 +601,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" thickTop="1">
       <c r="B3" s="2" t="s">
@@ -633,11 +625,11 @@
         <v>200</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" ht="20" customHeight="1">
       <c r="B4" s="4" t="s">
@@ -647,11 +639,11 @@
         <v>0.08</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="20" customHeight="1">
       <c r="B5" s="4" t="s">
@@ -661,11 +653,11 @@
         <v>1500</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1">
       <c r="B6" s="4" t="s">
@@ -676,11 +668,11 @@
         <v>276000</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="2:10" ht="20" customHeight="1">
       <c r="B7" s="4" t="s">
@@ -691,11 +683,11 @@
         <v>150</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:10" ht="20" customHeight="1">
       <c r="B8" s="4" t="s">
@@ -706,11 +698,11 @@
         <v>50000</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="2:10" ht="20" customHeight="1">
       <c r="B9" s="4" t="s">
@@ -721,11 +713,11 @@
         <v>50150</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="2:10" ht="20" customHeight="1">
       <c r="B10" s="8" t="s">
@@ -736,11 +728,11 @@
         <v>225850</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="2:10" ht="20" customHeight="1"/>
     <row r="12" spans="2:10" ht="20" customHeight="1"/>
@@ -1734,6 +1726,17 @@
     <row r="1000" ht="20" customHeight="1"/>
     <row r="1001" ht="20" customHeight="1"/>
   </sheetData>
+  <scenarios current="0" sqref="C6 C9 C10">
+    <scenario name="VAT 5%" locked="1" count="1" user="Brian Park" comment="Created by Brian Park on 4/22/2024">
+      <inputCells r="C4" val="0.05" numFmtId="9"/>
+    </scenario>
+    <scenario name="VAT 10%" locked="1" count="1" user="Brian Park" comment="Created by Brian Park on 4/22/2024">
+      <inputCells r="C4" val="0.1" numFmtId="9"/>
+    </scenario>
+    <scenario name="VAT 15%" locked="1" count="1" user="Brian Park" comment="Created by Brian Park on 4/22/2024">
+      <inputCells r="C4" val="0.15" numFmtId="9"/>
+    </scenario>
+  </scenarios>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
@@ -1746,21 +1749,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EDF7F5-4FDA-470A-8FC9-E1E0643EF67D}">
   <dimension ref="B2:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="3.54296875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="20.5" customHeight="1" thickBot="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="2:3" ht="20.5" customHeight="1" thickTop="1">
       <c r="B3" s="2" t="s">
@@ -1774,7 +1777,7 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
@@ -1790,7 +1793,7 @@
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f>PMT(C4/12,C5,-C3)</f>
         <v>508.90504541892204</v>
       </c>
